--- a/Experimental/NewMexicoData/DPN_overview.xlsx
+++ b/Experimental/NewMexicoData/DPN_overview.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Koen\CWI_WindTrue_BEM\19Oct2020_yawfactors\send\NewMexicoData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gveri\Documents\GitHub\windtrue\Experimental\NewMexicoData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263048A2-69BE-4F95-8B7D-FD048F4F9ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51CFBB0-4F3D-4792-B703-784DA2E59357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2956834C-4CD6-4B5A-986B-6F453CFE5B0E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2956834C-4CD6-4B5A-986B-6F453CFE5B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="DataPoints" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Cdpress">#REF!</definedName>
     <definedName name="Clpress">#REF!</definedName>
@@ -45,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>DATE</t>
   </si>
@@ -106,12 +103,15 @@
   <si>
     <t>Yawed flow (clean)</t>
   </si>
+  <si>
+    <t>Pressure @ 424 rpm (clean)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -130,8 +130,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +155,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -163,21 +180,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -193,41 +215,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DataPoints"/>
-      <sheetName val="BladeConfig"/>
-      <sheetName val="BladeGeometry"/>
-      <sheetName val="BladeStructure"/>
-      <sheetName val="ProfileCoordinates"/>
-      <sheetName val="Polar DU91"/>
-      <sheetName val="Polar RISO"/>
-      <sheetName val="Polar Naca"/>
-      <sheetName val="Cp DU91-W2-250, Re=0.7m"/>
-      <sheetName val="Cp NACA64418, Re=0.7m rough"/>
-      <sheetName val="Cp NACA64418, Re=0.7m clean"/>
-      <sheetName val="micfile"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,90 +520,90 @@
       <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="A16:XFD16"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37:U39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="6" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -641,7 +628,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5">
@@ -668,22 +655,22 @@
       <c r="J5">
         <v>60.1</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="4">
         <v>1.2044299999999999</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="4">
         <v>9.99</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="4">
         <v>8.01</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O5">
         <v>293.3</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="4">
         <v>425.1</v>
       </c>
       <c r="Q5">
@@ -702,7 +689,7 @@
         <v>101979</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6">
@@ -729,22 +716,22 @@
       <c r="J6">
         <v>136.4</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="4">
         <v>1.2049000000000001</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="4">
         <v>15.05</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="4">
         <v>8.01</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O6">
         <v>293.2</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="4">
         <v>425.1</v>
       </c>
       <c r="Q6">
@@ -763,7 +750,7 @@
         <v>102050</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7">
@@ -790,22 +777,22 @@
       <c r="J7">
         <v>193.6</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="4">
         <v>1.2045399999999999</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="4">
         <v>17.93</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="4">
         <v>8.01</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O7">
         <v>293.3</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="4">
         <v>425.1</v>
       </c>
       <c r="Q7">
@@ -833,7 +820,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8">
@@ -860,22 +847,22 @@
       <c r="J8">
         <v>350.2</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="4">
         <v>1.20333</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="4">
         <v>24.13</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="4">
         <v>8.01</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O8">
         <v>293.60000000000002</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="4">
         <v>425.1</v>
       </c>
       <c r="Q8">
@@ -903,7 +890,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9">
@@ -930,22 +917,22 @@
       <c r="J9">
         <v>59.3</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="4">
         <v>1.2030099999999999</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="4">
         <v>9.93</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="4">
         <v>15.01</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O9">
         <v>293.7</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="4">
         <v>425.1</v>
       </c>
       <c r="Q9">
@@ -973,7 +960,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10">
@@ -1000,22 +987,22 @@
       <c r="J10">
         <v>133.6</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="4">
         <v>1.20414</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="4">
         <v>14.9</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="4">
         <v>15.01</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O10">
         <v>293.39999999999998</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="4">
         <v>425.1</v>
       </c>
       <c r="Q10">
@@ -1043,7 +1030,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11">
@@ -1070,22 +1057,22 @@
       <c r="J11">
         <v>60.7</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="4">
         <v>1.2039500000000001</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="4">
         <v>10.039999999999999</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="4">
         <v>15.01</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O11">
         <v>293.39999999999998</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="4">
         <v>425.1</v>
       </c>
       <c r="Q11">
@@ -1113,7 +1100,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12">
@@ -1140,22 +1127,22 @@
       <c r="J12">
         <v>135.69999999999999</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="4">
         <v>1.20452</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="4">
         <v>15.01</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="4">
         <v>15.01</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O12">
         <v>293.3</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="4">
         <v>425.1</v>
       </c>
       <c r="Q12">
@@ -1183,7 +1170,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13">
@@ -1210,22 +1197,22 @@
       <c r="J13">
         <v>195.2</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="4">
         <v>1.2044699999999999</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="4">
         <v>18</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="4">
         <v>15.01</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O13">
         <v>293.3</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="4">
         <v>425.1</v>
       </c>
       <c r="Q13">
@@ -1253,7 +1240,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14">
@@ -1280,22 +1267,22 @@
       <c r="J14">
         <v>346.8</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="4">
         <v>1.2044900000000001</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="4">
         <v>24</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="4">
         <v>15.01</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O14">
         <v>293.3</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="4">
         <v>425.1</v>
       </c>
       <c r="Q14">
@@ -1323,7 +1310,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15">
@@ -1350,22 +1337,22 @@
       <c r="J15">
         <v>59.9</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="4">
         <v>1.2039500000000001</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="4">
         <v>9.98</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="4">
         <v>30.01</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O15">
         <v>293.39999999999998</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="4">
         <v>425.1</v>
       </c>
       <c r="Q15">
@@ -1393,7 +1380,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16">
@@ -1420,22 +1407,22 @@
       <c r="J16">
         <v>135.69999999999999</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="4">
         <v>1.2049000000000001</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="4">
         <v>15.01</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="4">
         <v>30.01</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O16">
         <v>293.2</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="4">
         <v>425.1</v>
       </c>
       <c r="Q16">
@@ -1463,7 +1450,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17">
@@ -1490,22 +1477,22 @@
       <c r="J17">
         <v>196.7</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="4">
         <v>1.20523</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="4">
         <v>18.07</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="4">
         <v>30.01</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O17">
         <v>293.10000000000002</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="4">
         <v>425.1</v>
       </c>
       <c r="Q17">
@@ -1533,7 +1520,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18">
@@ -1560,22 +1547,22 @@
       <c r="J18">
         <v>347.7</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="4">
         <v>1.2050700000000001</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="4">
         <v>24.02</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="4">
         <v>30.01</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O18">
         <v>293.10000000000002</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="4">
         <v>425.1</v>
       </c>
       <c r="Q18">
@@ -1603,7 +1590,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19">
@@ -1630,22 +1617,22 @@
       <c r="J19">
         <v>61.2</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="4">
         <v>1.2035199999999999</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="4">
         <v>10.08</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="4">
         <v>30.01</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="4">
         <v>0.7</v>
       </c>
       <c r="O19">
         <v>293.5</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="4">
         <v>425.1</v>
       </c>
       <c r="Q19">
@@ -1673,7 +1660,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20">
@@ -1700,22 +1687,22 @@
       <c r="J20">
         <v>137.1</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="4">
         <v>1.2044900000000001</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="4">
         <v>15.09</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="4">
         <v>30.01</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="4">
         <v>0.7</v>
       </c>
       <c r="O20">
         <v>293.3</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="4">
         <v>425.1</v>
       </c>
       <c r="Q20">
@@ -1743,7 +1730,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21">
@@ -1770,22 +1757,22 @@
       <c r="J21">
         <v>197.2</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="4">
         <v>1.20503</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="4">
         <v>18.09</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="4">
         <v>30.01</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="4">
         <v>0.7</v>
       </c>
       <c r="O21">
         <v>293.2</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="4">
         <v>425.1</v>
       </c>
       <c r="Q21">
@@ -1813,7 +1800,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22">
@@ -1840,22 +1827,22 @@
       <c r="J22">
         <v>197</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="4">
         <v>1.2048300000000001</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="4">
         <v>18.09</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="4">
         <v>30.01</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="4">
         <v>0.7</v>
       </c>
       <c r="O22">
         <v>293.2</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="4">
         <v>425.1</v>
       </c>
       <c r="Q22">
@@ -1874,7 +1861,7 @@
         <v>102102</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23">
@@ -1901,22 +1888,22 @@
       <c r="J23">
         <v>347.7</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="4">
         <v>1.2047300000000001</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="4">
         <v>24.02</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="4">
         <v>30.01</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="4">
         <v>0.7</v>
       </c>
       <c r="O23">
         <v>293.2</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="4">
         <v>425.1</v>
       </c>
       <c r="Q23">
@@ -1935,7 +1922,7 @@
         <v>102250</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24">
@@ -1962,22 +1949,22 @@
       <c r="J24">
         <v>60</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="4">
         <v>1.2045300000000001</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="4">
         <v>9.98</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="4">
         <v>45.01</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O24">
         <v>293.3</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="4">
         <v>425.1</v>
       </c>
       <c r="Q24">
@@ -1996,7 +1983,7 @@
         <v>101980</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25">
@@ -2023,22 +2010,22 @@
       <c r="J25">
         <v>137.6</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="4">
         <v>1.20539</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="4">
         <v>15.11</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="4">
         <v>45.01</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O25">
         <v>293.10000000000002</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="4">
         <v>425.1</v>
       </c>
       <c r="Q25">
@@ -2057,7 +2044,7 @@
         <v>102054</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26">
@@ -2084,22 +2071,22 @@
       <c r="J26">
         <v>197.8</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="4">
         <v>1.20553</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="4">
         <v>18.11</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="4">
         <v>45.01</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O26">
         <v>293.10000000000002</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="4">
         <v>425.1</v>
       </c>
       <c r="Q26">
@@ -2118,7 +2105,7 @@
         <v>102111</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27">
@@ -2145,22 +2132,22 @@
       <c r="J27">
         <v>348.2</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="4">
         <v>1.2050099999999999</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="4">
         <v>24.04</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="4">
         <v>45.01</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O27">
         <v>293.2</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="4">
         <v>425.1</v>
       </c>
       <c r="Q27">
@@ -2179,7 +2166,7 @@
         <v>102253</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28">
@@ -2206,22 +2193,22 @@
       <c r="J28">
         <v>348.1</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="4">
         <v>1.20248</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="4">
         <v>24.06</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="4">
         <v>45.01</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O28">
         <v>293.8</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="4">
         <v>425.1</v>
       </c>
       <c r="Q28">
@@ -2240,7 +2227,7 @@
         <v>102256</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29">
@@ -2267,22 +2254,22 @@
       <c r="J29">
         <v>60</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="4">
         <v>1.2059599999999999</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="4">
         <v>9.9700000000000006</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="4">
         <v>-30</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O29">
         <v>293</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="4">
         <v>425.1</v>
       </c>
       <c r="Q29">
@@ -2301,7 +2288,7 @@
         <v>101976</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30">
@@ -2328,22 +2315,22 @@
       <c r="J30">
         <v>135.80000000000001</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="4">
         <v>1.20624</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="4">
         <v>15</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="4">
         <v>-30</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O30">
         <v>292.89999999999998</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="4">
         <v>425.1</v>
       </c>
       <c r="Q30">
@@ -2362,7 +2349,7 @@
         <v>102047</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31">
@@ -2389,22 +2376,22 @@
       <c r="J31">
         <v>196.9</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="4">
         <v>1.2061200000000001</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="4">
         <v>18.07</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="4">
         <v>-30</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O31">
         <v>292.89999999999998</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="4">
         <v>425.1</v>
       </c>
       <c r="Q31">
@@ -2423,7 +2410,7 @@
         <v>102111</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32">
@@ -2450,22 +2437,22 @@
       <c r="J32">
         <v>348.5</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="4">
         <v>1.2056</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="4">
         <v>24.04</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="4">
         <v>-30</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O32">
         <v>293</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="4">
         <v>425.1</v>
       </c>
       <c r="Q32">
@@ -2484,7 +2471,7 @@
         <v>102253</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33">
@@ -2511,22 +2498,22 @@
       <c r="J33">
         <v>347.8</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="4">
         <v>1.2031099999999999</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="4">
         <v>24.04</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="4">
         <v>-30</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="4">
         <v>-2.2999999999999998</v>
       </c>
       <c r="O33">
         <v>293.60000000000002</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="4">
         <v>425.1</v>
       </c>
       <c r="Q33">
@@ -2545,7 +2532,7 @@
         <v>102246</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1"/>
@@ -2577,8 +2564,10 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="B35" s="5"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2600,63 +2589,234 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C37" s="9">
+        <v>20140626</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
+        <v>3</v>
+      </c>
+      <c r="F37" s="9">
+        <v>34</v>
+      </c>
+      <c r="G37" s="9">
+        <v>40</v>
+      </c>
+      <c r="H37" s="9">
+        <v>432</v>
+      </c>
+      <c r="I37" s="9">
+        <v>15163981</v>
+      </c>
+      <c r="J37" s="9">
+        <v>59.2</v>
+      </c>
+      <c r="K37" s="9">
+        <v>1.19842</v>
+      </c>
+      <c r="L37" s="9">
+        <v>9.94</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="O37" s="9">
+        <v>293.7</v>
+      </c>
+      <c r="P37" s="9">
+        <v>425.1</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>10.076000000000001</v>
+      </c>
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="T37" s="9">
+        <v>101543</v>
+      </c>
+      <c r="U37" s="9">
+        <v>101602</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C38" s="10">
+        <v>20140626</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <v>3</v>
+      </c>
+      <c r="F38" s="10">
+        <v>34</v>
+      </c>
+      <c r="G38" s="10">
+        <v>40</v>
+      </c>
+      <c r="H38" s="10">
+        <v>439</v>
+      </c>
+      <c r="I38" s="10">
+        <v>15253103</v>
+      </c>
+      <c r="J38" s="10">
+        <v>133.4</v>
+      </c>
+      <c r="K38" s="10">
+        <v>1.19686</v>
+      </c>
+      <c r="L38" s="10">
+        <v>14.93</v>
+      </c>
+      <c r="M38" s="10">
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="O38" s="10">
+        <v>294.10000000000002</v>
+      </c>
+      <c r="P38" s="10">
+        <v>425.1</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>6.71</v>
+      </c>
+      <c r="R38" s="10">
+        <v>0</v>
+      </c>
+      <c r="S38" s="10">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="T38" s="10">
+        <v>101535</v>
+      </c>
+      <c r="U38" s="10">
+        <v>101668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C39" s="9">
+        <v>20140626</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <v>3</v>
+      </c>
+      <c r="F39" s="9">
+        <v>34</v>
+      </c>
+      <c r="G39" s="9">
+        <v>40</v>
+      </c>
+      <c r="H39" s="9">
+        <v>447</v>
+      </c>
+      <c r="I39" s="9">
+        <v>15363140</v>
+      </c>
+      <c r="J39" s="9">
+        <v>343.4</v>
+      </c>
+      <c r="K39" s="9">
+        <v>1.1948099999999999</v>
+      </c>
+      <c r="L39" s="9">
+        <v>23.97</v>
+      </c>
+      <c r="M39" s="9">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="O39" s="9">
+        <v>294.60000000000002</v>
+      </c>
+      <c r="P39" s="9">
+        <v>425.1</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>4.1779999999999999</v>
+      </c>
+      <c r="R39" s="9">
+        <v>0</v>
+      </c>
+      <c r="S39" s="9">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="T39" s="9">
+        <v>101536</v>
+      </c>
+      <c r="U39" s="9">
+        <v>101880</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="1"/>
@@ -2679,56 +2839,56 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
-      <c r="P58" s="6"/>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
-      <c r="P61" s="6"/>
-    </row>
-    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
-      <c r="P62" s="6"/>
+      <c r="P62" s="3"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
@@ -2740,39 +2900,39 @@
       <c r="AD62" s="1"/>
       <c r="AH62" s="1"/>
     </row>
-    <row r="63" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
-      <c r="P63" s="6"/>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
     </row>
-    <row r="67" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
-      <c r="P67" s="6"/>
-    </row>
-    <row r="68" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
-      <c r="P68" s="6"/>
-    </row>
-    <row r="69" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
-      <c r="P69" s="6"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="1"/>
@@ -2795,7 +2955,7 @@
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="1"/>
@@ -2818,91 +2978,91 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="1"/>
@@ -2925,7 +3085,7 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="1"/>
@@ -2948,23 +3108,23 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
     </row>
-    <row r="99" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="V99" s="1"/>
@@ -2977,7 +3137,7 @@
       <c r="AC99" s="1"/>
       <c r="AD99" s="1"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="V100" s="1"/>
@@ -2990,71 +3150,71 @@
       <c r="AC100" s="1"/>
       <c r="AD100" s="1"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="V117" s="1"/>
@@ -3067,7 +3227,7 @@
       <c r="AC117" s="1"/>
       <c r="AD117" s="1"/>
     </row>
-    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="V118" s="1"/>
@@ -3080,23 +3240,23 @@
       <c r="AC118" s="1"/>
       <c r="AD118" s="1"/>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="V123" s="1"/>
@@ -3109,7 +3269,7 @@
       <c r="AC123" s="1"/>
       <c r="AD123" s="1"/>
     </row>
-    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="V124" s="1"/>
@@ -3123,67 +3283,67 @@
       <c r="AD124" s="1"/>
       <c r="AH124" s="1"/>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="V140" s="1"/>
@@ -3197,7 +3357,7 @@
       <c r="AD140" s="1"/>
       <c r="AH140" s="1"/>
     </row>
-    <row r="141" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="V141" s="1"/>
@@ -3211,7 +3371,7 @@
       <c r="AD141" s="1"/>
       <c r="AH141" s="1"/>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="V142" s="1"/>
@@ -3225,27 +3385,27 @@
       <c r="AD142" s="1"/>
       <c r="AH142" s="1"/>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="1"/>
@@ -3268,7 +3428,7 @@
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="1"/>
@@ -3291,15 +3451,15 @@
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="V152" s="1"/>
@@ -3312,7 +3472,7 @@
       <c r="AC152" s="1"/>
       <c r="AD152" s="1"/>
     </row>
-    <row r="153" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="V153" s="1"/>
@@ -3325,39 +3485,39 @@
       <c r="AC153" s="1"/>
       <c r="AD153" s="1"/>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="V162" s="1"/>
@@ -3370,7 +3530,7 @@
       <c r="AC162" s="1"/>
       <c r="AD162" s="1"/>
     </row>
-    <row r="163" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="V163" s="1"/>
@@ -3383,99 +3543,99 @@
       <c r="AC163" s="1"/>
       <c r="AD163" s="1"/>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
     </row>
-    <row r="187" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="V187" s="1"/>
@@ -3488,27 +3648,27 @@
       <c r="AC187" s="1"/>
       <c r="AD187" s="1"/>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="V193" s="1"/>
@@ -3521,7 +3681,7 @@
       <c r="AC193" s="1"/>
       <c r="AD193" s="1"/>
     </row>
-    <row r="194" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="V194" s="1"/>
@@ -3534,47 +3694,47 @@
       <c r="AC194" s="1"/>
       <c r="AD194" s="1"/>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="1"/>
@@ -3597,7 +3757,7 @@
       <c r="T205" s="1"/>
       <c r="U205" s="1"/>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="1"/>
@@ -3620,31 +3780,31 @@
       <c r="T206" s="1"/>
       <c r="U206" s="1"/>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
     </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="1"/>
@@ -3667,7 +3827,7 @@
       <c r="T213" s="1"/>
       <c r="U213" s="1"/>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="1"/>
@@ -3690,11 +3850,11 @@
       <c r="T214" s="1"/>
       <c r="U214" s="1"/>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="V216" s="1"/>
@@ -3707,7 +3867,7 @@
       <c r="AC216" s="1"/>
       <c r="AD216" s="1"/>
     </row>
-    <row r="217" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="V217" s="1"/>
@@ -3720,55 +3880,55 @@
       <c r="AC217" s="1"/>
       <c r="AD217" s="1"/>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="1"/>
@@ -3791,51 +3951,51 @@
       <c r="T230" s="1"/>
       <c r="U230" s="1"/>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="1"/>
@@ -3858,7 +4018,7 @@
       <c r="T242" s="1"/>
       <c r="U242" s="1"/>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="1"/>
@@ -3881,111 +4041,111 @@
       <c r="T243" s="1"/>
       <c r="U243" s="1"/>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
     </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
     </row>
-    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
     </row>
-    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
     </row>
-    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
     </row>
-    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="V270" s="1"/>
@@ -3998,7 +4158,7 @@
       <c r="AC270" s="1"/>
       <c r="AD270" s="1"/>
     </row>
-    <row r="271" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="V271" s="1"/>
@@ -4011,127 +4171,127 @@
       <c r="AC271" s="1"/>
       <c r="AD271" s="1"/>
     </row>
-    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
     </row>
-    <row r="277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="1"/>
@@ -4154,111 +4314,111 @@
       <c r="T302" s="1"/>
       <c r="U302" s="1"/>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
     </row>
-    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
     </row>
-    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
     </row>
-    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
     </row>
-    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
     </row>
-    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
     </row>
-    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
     </row>
-    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
     </row>
-    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
     </row>
-    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="V329" s="1"/>
@@ -4271,7 +4431,7 @@
       <c r="AC329" s="1"/>
       <c r="AD329" s="1"/>
     </row>
-    <row r="330" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="V330" s="1"/>
@@ -4284,75 +4444,75 @@
       <c r="AC330" s="1"/>
       <c r="AD330" s="1"/>
     </row>
-    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
     </row>
-    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
     </row>
-    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
     </row>
-    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
     </row>
-    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
     </row>
-    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="1"/>
@@ -4375,7 +4535,7 @@
       <c r="T348" s="1"/>
       <c r="U348" s="1"/>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="1"/>
@@ -4398,115 +4558,115 @@
       <c r="T349" s="1"/>
       <c r="U349" s="1"/>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
     </row>
-    <row r="369" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
     </row>
-    <row r="370" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
     </row>
-    <row r="371" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
     </row>
-    <row r="372" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
     </row>
-    <row r="373" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
     </row>
-    <row r="374" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
     </row>
-    <row r="375" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
     </row>
-    <row r="376" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
     </row>
-    <row r="377" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="V377" s="1"/>
@@ -4521,7 +4681,7 @@
       <c r="AG377" s="1"/>
       <c r="AH377" s="1"/>
     </row>
-    <row r="378" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="V378" s="1"/>
@@ -4536,103 +4696,103 @@
       <c r="AG378" s="1"/>
       <c r="AH378" s="1"/>
     </row>
-    <row r="379" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
     </row>
-    <row r="380" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
     </row>
-    <row r="381" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
     </row>
-    <row r="382" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
     </row>
-    <row r="383" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
     </row>
-    <row r="384" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
     </row>
-    <row r="401" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
     </row>
-    <row r="402" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
     </row>
-    <row r="403" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="V403" s="1"/>
@@ -4647,7 +4807,7 @@
       <c r="AG403" s="1"/>
       <c r="AH403" s="1"/>
     </row>
-    <row r="404" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="V404" s="1"/>
@@ -4662,7 +4822,7 @@
       <c r="AG404" s="1"/>
       <c r="AH404" s="1"/>
     </row>
-    <row r="405" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="V405" s="1"/>
@@ -4677,39 +4837,39 @@
       <c r="AG405" s="1"/>
       <c r="AH405" s="1"/>
     </row>
-    <row r="406" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
     </row>
-    <row r="407" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
     </row>
-    <row r="408" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
     </row>
-    <row r="409" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
     </row>
-    <row r="411" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
     </row>
-    <row r="412" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
     </row>
-    <row r="413" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
     </row>
-    <row r="414" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="V414" s="1"/>
@@ -4724,7 +4884,7 @@
       <c r="AG414" s="1"/>
       <c r="AH414" s="1"/>
     </row>
-    <row r="415" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="V415" s="1"/>
@@ -4739,39 +4899,39 @@
       <c r="AG415" s="1"/>
       <c r="AH415" s="1"/>
     </row>
-    <row r="416" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="1"/>
@@ -4794,69 +4954,69 @@
       <c r="T424" s="1"/>
       <c r="U424" s="1"/>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A431" s="4"/>
-      <c r="B431" s="4"/>
-    </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A432" s="4"/>
-      <c r="B432" s="4"/>
-    </row>
-    <row r="433" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A433" s="4"/>
-      <c r="B433" s="4"/>
-    </row>
-    <row r="434" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A434" s="4"/>
-      <c r="B434" s="4"/>
-    </row>
-    <row r="435" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A435" s="4"/>
-      <c r="B435" s="4"/>
-    </row>
-    <row r="436" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A436" s="4"/>
-      <c r="B436" s="4"/>
-    </row>
-    <row r="437" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A437" s="4"/>
-      <c r="B437" s="4"/>
-    </row>
-    <row r="438" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A438" s="4"/>
-      <c r="B438" s="4"/>
-    </row>
-    <row r="439" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A439" s="4"/>
-      <c r="B439" s="4"/>
-    </row>
-    <row r="440" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A440" s="4"/>
-      <c r="B440" s="4"/>
+    <row r="431" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A431" s="6"/>
+      <c r="B431" s="6"/>
+    </row>
+    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A432" s="6"/>
+      <c r="B432" s="6"/>
+    </row>
+    <row r="433" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A433" s="6"/>
+      <c r="B433" s="6"/>
+    </row>
+    <row r="434" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A434" s="6"/>
+      <c r="B434" s="6"/>
+    </row>
+    <row r="435" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A435" s="6"/>
+      <c r="B435" s="6"/>
+    </row>
+    <row r="436" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A436" s="6"/>
+      <c r="B436" s="6"/>
+    </row>
+    <row r="437" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A437" s="6"/>
+      <c r="B437" s="6"/>
+    </row>
+    <row r="438" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A438" s="6"/>
+      <c r="B438" s="6"/>
+    </row>
+    <row r="439" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A439" s="6"/>
+      <c r="B439" s="6"/>
+    </row>
+    <row r="440" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A440" s="6"/>
+      <c r="B440" s="6"/>
       <c r="V440" s="1"/>
       <c r="W440" s="1"/>
       <c r="X440" s="1"/>
@@ -4869,9 +5029,9 @@
       <c r="AG440" s="1"/>
       <c r="AH440" s="1"/>
     </row>
-    <row r="441" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="4"/>
-      <c r="B441" s="4"/>
+    <row r="441" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="6"/>
+      <c r="B441" s="6"/>
       <c r="V441" s="1"/>
       <c r="W441" s="1"/>
       <c r="X441" s="1"/>
@@ -4884,63 +5044,63 @@
       <c r="AG441" s="1"/>
       <c r="AH441" s="1"/>
     </row>
-    <row r="442" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A442" s="4"/>
-      <c r="B442" s="4"/>
-    </row>
-    <row r="443" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A443" s="4"/>
-      <c r="B443" s="4"/>
-    </row>
-    <row r="444" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A444" s="4"/>
-      <c r="B444" s="4"/>
-    </row>
-    <row r="445" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A445" s="4"/>
-      <c r="B445" s="4"/>
-    </row>
-    <row r="446" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A446" s="4"/>
-      <c r="B446" s="4"/>
-    </row>
-    <row r="447" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A447" s="4"/>
-      <c r="B447" s="4"/>
-    </row>
-    <row r="448" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A448" s="4"/>
-      <c r="B448" s="4"/>
-    </row>
-    <row r="449" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A449" s="4"/>
-      <c r="B449" s="4"/>
-    </row>
-    <row r="450" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A450" s="4"/>
-      <c r="B450" s="4"/>
-    </row>
-    <row r="451" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A451" s="4"/>
-      <c r="B451" s="4"/>
-    </row>
-    <row r="452" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A452" s="4"/>
-      <c r="B452" s="4"/>
-    </row>
-    <row r="453" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A453" s="4"/>
-      <c r="B453" s="4"/>
-    </row>
-    <row r="454" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A454" s="4"/>
-      <c r="B454" s="4"/>
-    </row>
-    <row r="455" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A455" s="4"/>
-      <c r="B455" s="4"/>
-    </row>
-    <row r="463" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A442" s="6"/>
+      <c r="B442" s="6"/>
+    </row>
+    <row r="443" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A443" s="6"/>
+      <c r="B443" s="6"/>
+    </row>
+    <row r="444" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A444" s="6"/>
+      <c r="B444" s="6"/>
+    </row>
+    <row r="445" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A445" s="6"/>
+      <c r="B445" s="6"/>
+    </row>
+    <row r="446" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A446" s="6"/>
+      <c r="B446" s="6"/>
+    </row>
+    <row r="447" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A447" s="6"/>
+      <c r="B447" s="6"/>
+    </row>
+    <row r="448" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A448" s="6"/>
+      <c r="B448" s="6"/>
+    </row>
+    <row r="449" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A449" s="6"/>
+      <c r="B449" s="6"/>
+    </row>
+    <row r="450" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A450" s="6"/>
+      <c r="B450" s="6"/>
+    </row>
+    <row r="451" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A451" s="6"/>
+      <c r="B451" s="6"/>
+    </row>
+    <row r="452" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A452" s="6"/>
+      <c r="B452" s="6"/>
+    </row>
+    <row r="453" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A453" s="6"/>
+      <c r="B453" s="6"/>
+    </row>
+    <row r="454" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A454" s="6"/>
+      <c r="B454" s="6"/>
+    </row>
+    <row r="455" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A455" s="6"/>
+      <c r="B455" s="6"/>
+    </row>
+    <row r="463" spans="1:34" x14ac:dyDescent="0.25">
       <c r="V463" s="1"/>
       <c r="W463" s="1"/>
       <c r="X463" s="1"/>
@@ -4953,7 +5113,7 @@
       <c r="AG463" s="1"/>
       <c r="AH463" s="1"/>
     </row>
-    <row r="464" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V464" s="1"/>
       <c r="W464" s="1"/>
       <c r="X464" s="1"/>
@@ -4966,7 +5126,7 @@
       <c r="AG464" s="1"/>
       <c r="AH464" s="1"/>
     </row>
-    <row r="477" spans="22:34" x14ac:dyDescent="0.2">
+    <row r="477" spans="22:34" x14ac:dyDescent="0.25">
       <c r="V477" s="1"/>
       <c r="W477" s="1"/>
       <c r="X477" s="1"/>
@@ -4979,7 +5139,7 @@
       <c r="AG477" s="1"/>
       <c r="AH477" s="1"/>
     </row>
-    <row r="478" spans="22:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="22:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V478" s="1"/>
       <c r="W478" s="1"/>
       <c r="X478" s="1"/>
@@ -4992,8 +5152,8 @@
       <c r="AG478" s="1"/>
       <c r="AH478" s="1"/>
     </row>
-    <row r="504" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" spans="22:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" spans="22:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V515" s="1"/>
       <c r="W515" s="1"/>
       <c r="X515" s="1"/>
@@ -5006,7 +5166,7 @@
       <c r="AG515" s="1"/>
       <c r="AH515" s="1"/>
     </row>
-    <row r="528" spans="22:34" x14ac:dyDescent="0.2">
+    <row r="528" spans="22:34" x14ac:dyDescent="0.25">
       <c r="V528" s="1"/>
       <c r="W528" s="1"/>
       <c r="X528" s="1"/>
@@ -5019,7 +5179,7 @@
       <c r="AG528" s="1"/>
       <c r="AH528" s="1"/>
     </row>
-    <row r="529" spans="22:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="22:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V529" s="1"/>
       <c r="W529" s="1"/>
       <c r="X529" s="1"/>
@@ -5032,7 +5192,7 @@
       <c r="AG529" s="1"/>
       <c r="AH529" s="1"/>
     </row>
-    <row r="552" spans="22:30" x14ac:dyDescent="0.2">
+    <row r="552" spans="22:30" x14ac:dyDescent="0.25">
       <c r="V552" s="1"/>
       <c r="W552" s="1"/>
       <c r="X552" s="1"/>
@@ -5043,7 +5203,7 @@
       <c r="AC552" s="1"/>
       <c r="AD552" s="1"/>
     </row>
-    <row r="553" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V553" s="1"/>
       <c r="W553" s="1"/>
       <c r="X553" s="1"/>
@@ -5054,7 +5214,7 @@
       <c r="AC553" s="1"/>
       <c r="AD553" s="1"/>
     </row>
-    <row r="606" spans="22:30" x14ac:dyDescent="0.2">
+    <row r="606" spans="22:30" x14ac:dyDescent="0.25">
       <c r="V606" s="1"/>
       <c r="W606" s="1"/>
       <c r="X606" s="1"/>
@@ -5065,7 +5225,7 @@
       <c r="AC606" s="1"/>
       <c r="AD606" s="1"/>
     </row>
-    <row r="607" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V607" s="1"/>
       <c r="W607" s="1"/>
       <c r="X607" s="1"/>
@@ -5076,7 +5236,7 @@
       <c r="AC607" s="1"/>
       <c r="AD607" s="1"/>
     </row>
-    <row r="660" spans="22:30" x14ac:dyDescent="0.2">
+    <row r="660" spans="22:30" x14ac:dyDescent="0.25">
       <c r="V660" s="1"/>
       <c r="W660" s="1"/>
       <c r="X660" s="1"/>
@@ -5087,7 +5247,7 @@
       <c r="AC660" s="1"/>
       <c r="AD660" s="1"/>
     </row>
-    <row r="661" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V661" s="1"/>
       <c r="W661" s="1"/>
       <c r="X661" s="1"/>
@@ -5098,8 +5258,8 @@
       <c r="AC661" s="1"/>
       <c r="AD661" s="1"/>
     </row>
-    <row r="667" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" spans="22:30" x14ac:dyDescent="0.2">
+    <row r="667" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" spans="22:30" x14ac:dyDescent="0.25">
       <c r="V671" s="1"/>
       <c r="W671" s="1"/>
       <c r="X671" s="1"/>
@@ -5110,7 +5270,7 @@
       <c r="AC671" s="1"/>
       <c r="AD671" s="1"/>
     </row>
-    <row r="672" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V672" s="1"/>
       <c r="W672" s="1"/>
       <c r="X672" s="1"/>
@@ -5121,7 +5281,7 @@
       <c r="AC672" s="1"/>
       <c r="AD672" s="1"/>
     </row>
-    <row r="694" spans="22:30" x14ac:dyDescent="0.2">
+    <row r="694" spans="22:30" x14ac:dyDescent="0.25">
       <c r="V694" s="1"/>
       <c r="W694" s="1"/>
       <c r="X694" s="1"/>
@@ -5132,7 +5292,7 @@
       <c r="AC694" s="1"/>
       <c r="AD694" s="1"/>
     </row>
-    <row r="695" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V695" s="1"/>
       <c r="W695" s="1"/>
       <c r="X695" s="1"/>
@@ -5143,7 +5303,7 @@
       <c r="AC695" s="1"/>
       <c r="AD695" s="1"/>
     </row>
-    <row r="725" spans="22:30" x14ac:dyDescent="0.2">
+    <row r="725" spans="22:30" x14ac:dyDescent="0.25">
       <c r="V725" s="1"/>
       <c r="W725" s="1"/>
       <c r="X725" s="1"/>
@@ -5154,7 +5314,7 @@
       <c r="AC725" s="1"/>
       <c r="AD725" s="1"/>
     </row>
-    <row r="726" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V726" s="1"/>
       <c r="W726" s="1"/>
       <c r="X726" s="1"/>
@@ -5165,7 +5325,7 @@
       <c r="AC726" s="1"/>
       <c r="AD726" s="1"/>
     </row>
-    <row r="741" spans="22:30" x14ac:dyDescent="0.2">
+    <row r="741" spans="22:30" x14ac:dyDescent="0.25">
       <c r="V741" s="1"/>
       <c r="W741" s="1"/>
       <c r="X741" s="1"/>
@@ -5176,11 +5336,11 @@
       <c r="AC741" s="1"/>
       <c r="AD741" s="1"/>
     </row>
-    <row r="742" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" spans="22:30" x14ac:dyDescent="0.2">
+    <row r="742" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" spans="22:30" x14ac:dyDescent="0.25">
       <c r="V761" s="1"/>
       <c r="W761" s="1"/>
       <c r="X761" s="1"/>
@@ -5191,7 +5351,7 @@
       <c r="AC761" s="1"/>
       <c r="AD761" s="1"/>
     </row>
-    <row r="762" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V762" s="1"/>
       <c r="W762" s="1"/>
       <c r="X762" s="1"/>
@@ -5202,7 +5362,7 @@
       <c r="AC762" s="1"/>
       <c r="AD762" s="1"/>
     </row>
-    <row r="784" spans="22:30" x14ac:dyDescent="0.2">
+    <row r="784" spans="22:30" x14ac:dyDescent="0.25">
       <c r="V784" s="1"/>
       <c r="W784" s="1"/>
       <c r="X784" s="1"/>
@@ -5213,7 +5373,7 @@
       <c r="AC784" s="1"/>
       <c r="AD784" s="1"/>
     </row>
-    <row r="785" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V785" s="1"/>
       <c r="W785" s="1"/>
       <c r="X785" s="1"/>
@@ -5224,7 +5384,7 @@
       <c r="AC785" s="1"/>
       <c r="AD785" s="1"/>
     </row>
-    <row r="839" spans="22:30" x14ac:dyDescent="0.2">
+    <row r="839" spans="22:30" x14ac:dyDescent="0.25">
       <c r="V839" s="1"/>
       <c r="W839" s="1"/>
       <c r="X839" s="1"/>
@@ -5235,7 +5395,7 @@
       <c r="AC839" s="1"/>
       <c r="AD839" s="1"/>
     </row>
-    <row r="840" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V840" s="1"/>
       <c r="W840" s="1"/>
       <c r="X840" s="1"/>
@@ -5246,7 +5406,7 @@
       <c r="AC840" s="1"/>
       <c r="AD840" s="1"/>
     </row>
-    <row r="896" spans="22:30" x14ac:dyDescent="0.2">
+    <row r="896" spans="22:30" x14ac:dyDescent="0.25">
       <c r="V896" s="1"/>
       <c r="W896" s="1"/>
       <c r="X896" s="1"/>
@@ -5257,7 +5417,7 @@
       <c r="AC896" s="1"/>
       <c r="AD896" s="1"/>
     </row>
-    <row r="897" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V897" s="1"/>
       <c r="W897" s="1"/>
       <c r="X897" s="1"/>
@@ -5268,8 +5428,8 @@
       <c r="AC897" s="1"/>
       <c r="AD897" s="1"/>
     </row>
-    <row r="901" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" spans="22:30" x14ac:dyDescent="0.2">
+    <row r="901" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" spans="22:30" x14ac:dyDescent="0.25">
       <c r="V904" s="1"/>
       <c r="W904" s="1"/>
       <c r="X904" s="1"/>
@@ -5280,7 +5440,7 @@
       <c r="AC904" s="1"/>
       <c r="AD904" s="1"/>
     </row>
-    <row r="905" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V905" s="1"/>
       <c r="W905" s="1"/>
       <c r="X905" s="1"/>
@@ -5291,11 +5451,11 @@
       <c r="AC905" s="1"/>
       <c r="AD905" s="1"/>
     </row>
-    <row r="909" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" spans="22:30" x14ac:dyDescent="0.2">
+    <row r="909" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" spans="22:30" x14ac:dyDescent="0.25">
       <c r="V921" s="1"/>
       <c r="W921" s="1"/>
       <c r="X921" s="1"/>
@@ -5306,8 +5466,8 @@
       <c r="AC921" s="1"/>
       <c r="AD921" s="1"/>
     </row>
-    <row r="922" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" spans="22:30" x14ac:dyDescent="0.2">
+    <row r="922" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" spans="22:30" x14ac:dyDescent="0.25">
       <c r="V933" s="1"/>
       <c r="W933" s="1"/>
       <c r="X933" s="1"/>
@@ -5318,7 +5478,7 @@
       <c r="AC933" s="1"/>
       <c r="AD933" s="1"/>
     </row>
-    <row r="934" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V934" s="1"/>
       <c r="W934" s="1"/>
       <c r="X934" s="1"/>
@@ -5329,7 +5489,7 @@
       <c r="AC934" s="1"/>
       <c r="AD934" s="1"/>
     </row>
-    <row r="993" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V993" s="1"/>
       <c r="W993" s="1"/>
       <c r="X993" s="1"/>
@@ -5340,7 +5500,7 @@
       <c r="AC993" s="1"/>
       <c r="AD993" s="1"/>
     </row>
-    <row r="1039" spans="22:30" x14ac:dyDescent="0.2">
+    <row r="1039" spans="22:30" x14ac:dyDescent="0.25">
       <c r="V1039" s="1"/>
       <c r="W1039" s="1"/>
       <c r="X1039" s="1"/>
@@ -5351,7 +5511,7 @@
       <c r="AC1039" s="1"/>
       <c r="AD1039" s="1"/>
     </row>
-    <row r="1040" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V1040" s="1"/>
       <c r="W1040" s="1"/>
       <c r="X1040" s="1"/>
@@ -5362,7 +5522,7 @@
       <c r="AC1040" s="1"/>
       <c r="AD1040" s="1"/>
     </row>
-    <row r="1115" spans="22:30" x14ac:dyDescent="0.2">
+    <row r="1115" spans="22:30" x14ac:dyDescent="0.25">
       <c r="V1115" s="1"/>
       <c r="W1115" s="1"/>
       <c r="X1115" s="1"/>
@@ -5373,19 +5533,15 @@
       <c r="AC1115" s="1"/>
       <c r="AD1115" s="1"/>
     </row>
-    <row r="1116" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1116" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A243:B301"/>
-    <mergeCell ref="A302:B348"/>
-    <mergeCell ref="A349:B424"/>
-    <mergeCell ref="A425:B430"/>
-    <mergeCell ref="A431:B455"/>
-    <mergeCell ref="A214:B217"/>
-    <mergeCell ref="A218:B220"/>
-    <mergeCell ref="A221:B223"/>
-    <mergeCell ref="A224:B226"/>
-    <mergeCell ref="A227:B230"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B34"/>
+    <mergeCell ref="A35:B50"/>
+    <mergeCell ref="A51:B53"/>
+    <mergeCell ref="A54:B56"/>
+    <mergeCell ref="A57:B63"/>
     <mergeCell ref="A231:B242"/>
     <mergeCell ref="A64:B70"/>
     <mergeCell ref="A71:B93"/>
@@ -5393,12 +5549,16 @@
     <mergeCell ref="A149:B205"/>
     <mergeCell ref="A206:B209"/>
     <mergeCell ref="A210:B213"/>
-    <mergeCell ref="A4:B34"/>
-    <mergeCell ref="A35:B50"/>
-    <mergeCell ref="A51:B53"/>
-    <mergeCell ref="A54:B56"/>
-    <mergeCell ref="A57:B63"/>
-    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A214:B217"/>
+    <mergeCell ref="A218:B220"/>
+    <mergeCell ref="A221:B223"/>
+    <mergeCell ref="A224:B226"/>
+    <mergeCell ref="A227:B230"/>
+    <mergeCell ref="A243:B301"/>
+    <mergeCell ref="A302:B348"/>
+    <mergeCell ref="A349:B424"/>
+    <mergeCell ref="A425:B430"/>
+    <mergeCell ref="A431:B455"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Experimental/NewMexicoData/DPN_overview.xlsx
+++ b/Experimental/NewMexicoData/DPN_overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gveri\Documents\GitHub\windtrue\Experimental\NewMexicoData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51CFBB0-4F3D-4792-B703-784DA2E59357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EFD684-105E-49DB-8262-554CF7638A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2956834C-4CD6-4B5A-986B-6F453CFE5B0E}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21600" windowHeight="11772" xr2:uid="{2956834C-4CD6-4B5A-986B-6F453CFE5B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="DataPoints" sheetId="1" r:id="rId1"/>
@@ -186,20 +186,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +517,10 @@
   <dimension ref="A1:AH1116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37:U39"/>
+      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -604,10 +604,10 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -629,8 +629,8 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5">
         <v>20140701</v>
       </c>
@@ -690,8 +690,8 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6">
         <v>20140701</v>
       </c>
@@ -751,8 +751,8 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7">
         <v>20140701</v>
       </c>
@@ -821,8 +821,8 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8">
         <v>20140701</v>
       </c>
@@ -891,8 +891,8 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9">
         <v>20140701</v>
       </c>
@@ -961,8 +961,8 @@
       <c r="AD9" s="1"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10">
         <v>20140701</v>
       </c>
@@ -1031,8 +1031,8 @@
       <c r="AD10" s="1"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11">
         <v>20140701</v>
       </c>
@@ -1101,8 +1101,8 @@
       <c r="AD11" s="1"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12">
         <v>20140701</v>
       </c>
@@ -1171,8 +1171,8 @@
       <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13">
         <v>20140701</v>
       </c>
@@ -1241,8 +1241,8 @@
       <c r="AD13" s="1"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14">
         <v>20140701</v>
       </c>
@@ -1311,8 +1311,8 @@
       <c r="AD14" s="1"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15">
         <v>20140701</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="AD15" s="1"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16">
         <v>20140701</v>
       </c>
@@ -1451,8 +1451,8 @@
       <c r="AD16" s="1"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17">
         <v>20140701</v>
       </c>
@@ -1521,8 +1521,8 @@
       <c r="AD17" s="1"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18">
         <v>20140701</v>
       </c>
@@ -1591,8 +1591,8 @@
       <c r="AD18" s="1"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19">
         <v>20140701</v>
       </c>
@@ -1661,8 +1661,8 @@
       <c r="AD19" s="1"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20">
         <v>20140701</v>
       </c>
@@ -1731,8 +1731,8 @@
       <c r="AD20" s="1"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21">
         <v>20140701</v>
       </c>
@@ -1801,8 +1801,8 @@
       <c r="AD21" s="1"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22">
         <v>20140701</v>
       </c>
@@ -1862,8 +1862,8 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23">
         <v>20140701</v>
       </c>
@@ -1923,8 +1923,8 @@
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24">
         <v>20140701</v>
       </c>
@@ -1984,8 +1984,8 @@
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25">
         <v>20140701</v>
       </c>
@@ -2045,8 +2045,8 @@
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="C26">
         <v>20140701</v>
       </c>
@@ -2106,8 +2106,8 @@
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27">
         <v>20140701</v>
       </c>
@@ -2167,8 +2167,8 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28">
         <v>20140701</v>
       </c>
@@ -2228,8 +2228,8 @@
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29">
         <v>20140701</v>
       </c>
@@ -2289,8 +2289,8 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
       <c r="C30">
         <v>20140701</v>
       </c>
@@ -2350,8 +2350,8 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31">
         <v>20140701</v>
       </c>
@@ -2411,8 +2411,8 @@
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
       <c r="C32">
         <v>20140701</v>
       </c>
@@ -2472,8 +2472,8 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33">
         <v>20140701</v>
       </c>
@@ -2533,8 +2533,8 @@
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2565,10 +2565,10 @@
       <c r="AD34" s="1"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="5"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2590,235 +2590,292 @@
       <c r="U35" s="1"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="9">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="5">
         <v>20140626</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="5">
         <v>0</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="5">
         <v>3</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="5">
         <v>34</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="5">
         <v>40</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="5">
         <v>432</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="5">
         <v>15163981</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="5">
         <v>59.2</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="5">
         <v>1.19842</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="5">
         <v>9.94</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="5">
         <v>0</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="5">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="O37" s="9">
+      <c r="O37" s="5">
         <v>293.7</v>
       </c>
-      <c r="P37" s="9">
+      <c r="P37" s="5">
         <v>425.1</v>
       </c>
-      <c r="Q37" s="9">
+      <c r="Q37" s="5">
         <v>10.076000000000001</v>
       </c>
-      <c r="R37" s="9">
+      <c r="R37" s="5">
         <v>0</v>
       </c>
-      <c r="S37" s="9">
+      <c r="S37" s="5">
         <v>1.5249999999999999</v>
       </c>
-      <c r="T37" s="9">
+      <c r="T37" s="5">
         <v>101543</v>
       </c>
-      <c r="U37" s="9">
+      <c r="U37" s="5">
         <v>101602</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="10">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="6">
         <v>20140626</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="6">
         <v>0</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="6">
         <v>3</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="6">
         <v>34</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="6">
         <v>40</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="6">
         <v>439</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="6">
         <v>15253103</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="6">
         <v>133.4</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="6">
         <v>1.19686</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="6">
         <v>14.93</v>
       </c>
-      <c r="M38" s="10">
+      <c r="M38" s="6">
         <v>0</v>
       </c>
-      <c r="N38" s="10">
+      <c r="N38" s="6">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="6">
         <v>294.10000000000002</v>
       </c>
-      <c r="P38" s="10">
+      <c r="P38" s="6">
         <v>425.1</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="Q38" s="6">
         <v>6.71</v>
       </c>
-      <c r="R38" s="10">
+      <c r="R38" s="6">
         <v>0</v>
       </c>
-      <c r="S38" s="10">
+      <c r="S38" s="6">
         <v>1.5249999999999999</v>
       </c>
-      <c r="T38" s="10">
+      <c r="T38" s="6">
         <v>101535</v>
       </c>
-      <c r="U38" s="10">
+      <c r="U38" s="6">
         <v>101668</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="9">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="5">
         <v>20140626</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="5">
         <v>0</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="5">
         <v>3</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="5">
         <v>34</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="5">
         <v>40</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="5">
         <v>447</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="5">
         <v>15363140</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="5">
         <v>343.4</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="5">
         <v>1.1948099999999999</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="5">
         <v>23.97</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="5">
         <v>0</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="5">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="O39" s="9">
+      <c r="O39" s="5">
         <v>294.60000000000002</v>
       </c>
-      <c r="P39" s="9">
+      <c r="P39" s="5">
         <v>425.1</v>
       </c>
-      <c r="Q39" s="9">
+      <c r="Q39" s="5">
         <v>4.1779999999999999</v>
       </c>
-      <c r="R39" s="9">
+      <c r="R39" s="5">
         <v>0</v>
       </c>
-      <c r="S39" s="9">
+      <c r="S39" s="5">
         <v>1.5249999999999999</v>
       </c>
-      <c r="T39" s="9">
+      <c r="T39" s="5">
         <v>101536</v>
       </c>
-      <c r="U39" s="9">
+      <c r="U39" s="5">
         <v>101880</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40">
+        <v>20140626</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>34</v>
+      </c>
+      <c r="G40">
+        <v>40</v>
+      </c>
+      <c r="H40">
+        <v>429</v>
+      </c>
+      <c r="I40">
+        <v>15122789</v>
+      </c>
+      <c r="J40">
+        <v>29</v>
+      </c>
+      <c r="K40">
+        <v>1.19892</v>
+      </c>
+      <c r="L40">
+        <v>6.95</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="O40">
+        <v>293.60000000000002</v>
+      </c>
+      <c r="P40">
+        <v>425.1</v>
+      </c>
+      <c r="Q40">
+        <v>14.409000000000001</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="T40">
+        <v>101541</v>
+      </c>
+      <c r="U40">
+        <v>101570</v>
+      </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2840,54 +2897,54 @@
       <c r="U50" s="1"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
     </row>
     <row r="58" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
       <c r="P62" s="3"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
@@ -2901,40 +2958,40 @@
       <c r="AH62" s="1"/>
     </row>
     <row r="63" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
     </row>
     <row r="67" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
       <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2956,8 +3013,8 @@
       <c r="U70" s="1"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2979,92 +3036,92 @@
       <c r="U71" s="1"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3086,8 +3143,8 @@
       <c r="U93" s="1"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3109,24 +3166,24 @@
       <c r="U94" s="1"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
     </row>
     <row r="99" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
@@ -3138,8 +3195,8 @@
       <c r="AD99" s="1"/>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
@@ -3151,72 +3208,72 @@
       <c r="AD100" s="1"/>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
@@ -3228,8 +3285,8 @@
       <c r="AD117" s="1"/>
     </row>
     <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
@@ -3241,24 +3298,24 @@
       <c r="AD118" s="1"/>
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
@@ -3270,8 +3327,8 @@
       <c r="AD123" s="1"/>
     </row>
     <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
@@ -3284,68 +3341,68 @@
       <c r="AH124" s="1"/>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
     </row>
     <row r="138" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
@@ -3358,8 +3415,8 @@
       <c r="AH140" s="1"/>
     </row>
     <row r="141" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
@@ -3372,8 +3429,8 @@
       <c r="AH141" s="1"/>
     </row>
     <row r="142" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
@@ -3386,28 +3443,28 @@
       <c r="AH142" s="1"/>
     </row>
     <row r="143" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
     </row>
     <row r="144" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
     </row>
     <row r="146" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -3429,8 +3486,8 @@
       <c r="U148" s="1"/>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -3452,16 +3509,16 @@
       <c r="U149" s="1"/>
     </row>
     <row r="150" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
@@ -3473,8 +3530,8 @@
       <c r="AD152" s="1"/>
     </row>
     <row r="153" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
@@ -3486,40 +3543,40 @@
       <c r="AD153" s="1"/>
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
     </row>
     <row r="162" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
@@ -3531,8 +3588,8 @@
       <c r="AD162" s="1"/>
     </row>
     <row r="163" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
@@ -3544,100 +3601,100 @@
       <c r="AD163" s="1"/>
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
     </row>
     <row r="166" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
     </row>
     <row r="167" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
     </row>
     <row r="169" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
     </row>
     <row r="170" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
     </row>
     <row r="171" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
     </row>
     <row r="174" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
     </row>
     <row r="177" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5"/>
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
     </row>
     <row r="178" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
     </row>
     <row r="180" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
     </row>
     <row r="181" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
     </row>
     <row r="182" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A182" s="5"/>
-      <c r="B182" s="5"/>
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
     </row>
     <row r="183" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A183" s="5"/>
-      <c r="B183" s="5"/>
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
     </row>
     <row r="184" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A184" s="5"/>
-      <c r="B184" s="5"/>
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
     </row>
     <row r="185" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A185" s="5"/>
-      <c r="B185" s="5"/>
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
     </row>
     <row r="186" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A186" s="5"/>
-      <c r="B186" s="5"/>
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
     </row>
     <row r="187" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5"/>
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
@@ -3649,28 +3706,28 @@
       <c r="AD187" s="1"/>
     </row>
     <row r="188" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A188" s="5"/>
-      <c r="B188" s="5"/>
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
     </row>
     <row r="189" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A189" s="5"/>
-      <c r="B189" s="5"/>
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
     </row>
     <row r="190" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A190" s="5"/>
-      <c r="B190" s="5"/>
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
     </row>
     <row r="191" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A191" s="5"/>
-      <c r="B191" s="5"/>
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
     </row>
     <row r="192" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A192" s="5"/>
-      <c r="B192" s="5"/>
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
     </row>
     <row r="193" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A193" s="5"/>
-      <c r="B193" s="5"/>
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
@@ -3682,8 +3739,8 @@
       <c r="AD193" s="1"/>
     </row>
     <row r="194" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="5"/>
-      <c r="B194" s="5"/>
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
@@ -3695,48 +3752,48 @@
       <c r="AD194" s="1"/>
     </row>
     <row r="195" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A195" s="5"/>
-      <c r="B195" s="5"/>
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
     </row>
     <row r="196" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A196" s="5"/>
-      <c r="B196" s="5"/>
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
     </row>
     <row r="197" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A197" s="5"/>
-      <c r="B197" s="5"/>
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
     </row>
     <row r="198" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A198" s="5"/>
-      <c r="B198" s="5"/>
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
     </row>
     <row r="199" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A199" s="5"/>
-      <c r="B199" s="5"/>
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
     </row>
     <row r="200" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A200" s="5"/>
-      <c r="B200" s="5"/>
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
     </row>
     <row r="201" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A201" s="5"/>
-      <c r="B201" s="5"/>
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
     </row>
     <row r="202" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A202" s="5"/>
-      <c r="B202" s="5"/>
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
     </row>
     <row r="203" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A203" s="5"/>
-      <c r="B203" s="5"/>
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
     </row>
     <row r="204" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A204" s="5"/>
-      <c r="B204" s="5"/>
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
     </row>
     <row r="205" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A205" s="5"/>
-      <c r="B205" s="5"/>
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -3758,8 +3815,8 @@
       <c r="U205" s="1"/>
     </row>
     <row r="206" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A206" s="5"/>
-      <c r="B206" s="5"/>
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -3781,32 +3838,32 @@
       <c r="U206" s="1"/>
     </row>
     <row r="207" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A207" s="5"/>
-      <c r="B207" s="5"/>
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
     </row>
     <row r="208" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A208" s="5"/>
-      <c r="B208" s="5"/>
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
     </row>
     <row r="209" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A209" s="5"/>
-      <c r="B209" s="5"/>
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
     </row>
     <row r="210" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5"/>
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
     </row>
     <row r="211" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A211" s="5"/>
-      <c r="B211" s="5"/>
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
     </row>
     <row r="212" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A212" s="5"/>
-      <c r="B212" s="5"/>
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
     </row>
     <row r="213" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5"/>
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -3828,8 +3885,8 @@
       <c r="U213" s="1"/>
     </row>
     <row r="214" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5"/>
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -3851,12 +3908,12 @@
       <c r="U214" s="1"/>
     </row>
     <row r="215" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A215" s="5"/>
-      <c r="B215" s="5"/>
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
     </row>
     <row r="216" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A216" s="5"/>
-      <c r="B216" s="5"/>
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
       <c r="V216" s="1"/>
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
@@ -3868,8 +3925,8 @@
       <c r="AD216" s="1"/>
     </row>
     <row r="217" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
       <c r="V217" s="1"/>
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
@@ -3881,56 +3938,56 @@
       <c r="AD217" s="1"/>
     </row>
     <row r="218" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
     </row>
     <row r="219" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
     </row>
     <row r="220" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
     </row>
     <row r="221" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A221" s="5"/>
-      <c r="B221" s="5"/>
+      <c r="A221" s="8"/>
+      <c r="B221" s="8"/>
     </row>
     <row r="222" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A222" s="5"/>
-      <c r="B222" s="5"/>
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
     </row>
     <row r="223" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A223" s="5"/>
-      <c r="B223" s="5"/>
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
     </row>
     <row r="224" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A224" s="5"/>
-      <c r="B224" s="5"/>
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A225" s="5"/>
-      <c r="B225" s="5"/>
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A226" s="5"/>
-      <c r="B226" s="5"/>
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A227" s="5"/>
-      <c r="B227" s="5"/>
+      <c r="A227" s="8"/>
+      <c r="B227" s="8"/>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A228" s="5"/>
-      <c r="B228" s="5"/>
+      <c r="A228" s="8"/>
+      <c r="B228" s="8"/>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A229" s="5"/>
-      <c r="B229" s="5"/>
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A230" s="5"/>
-      <c r="B230" s="5"/>
+      <c r="A230" s="8"/>
+      <c r="B230" s="8"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -3952,52 +4009,52 @@
       <c r="U230" s="1"/>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A231" s="5"/>
-      <c r="B231" s="5"/>
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A232" s="5"/>
-      <c r="B232" s="5"/>
+      <c r="A232" s="8"/>
+      <c r="B232" s="8"/>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A233" s="5"/>
-      <c r="B233" s="5"/>
+      <c r="A233" s="8"/>
+      <c r="B233" s="8"/>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A234" s="5"/>
-      <c r="B234" s="5"/>
+      <c r="A234" s="8"/>
+      <c r="B234" s="8"/>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A235" s="5"/>
-      <c r="B235" s="5"/>
+      <c r="A235" s="8"/>
+      <c r="B235" s="8"/>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A236" s="5"/>
-      <c r="B236" s="5"/>
+      <c r="A236" s="8"/>
+      <c r="B236" s="8"/>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A237" s="5"/>
-      <c r="B237" s="5"/>
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A238" s="5"/>
-      <c r="B238" s="5"/>
+      <c r="A238" s="8"/>
+      <c r="B238" s="8"/>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A239" s="5"/>
-      <c r="B239" s="5"/>
+      <c r="A239" s="8"/>
+      <c r="B239" s="8"/>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A240" s="5"/>
-      <c r="B240" s="5"/>
+      <c r="A240" s="8"/>
+      <c r="B240" s="8"/>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A241" s="5"/>
-      <c r="B241" s="5"/>
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A242" s="5"/>
-      <c r="B242" s="5"/>
+      <c r="A242" s="8"/>
+      <c r="B242" s="8"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -4019,8 +4076,8 @@
       <c r="U242" s="1"/>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A243" s="5"/>
-      <c r="B243" s="5"/>
+      <c r="A243" s="8"/>
+      <c r="B243" s="8"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -4042,112 +4099,112 @@
       <c r="U243" s="1"/>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A244" s="5"/>
-      <c r="B244" s="5"/>
+      <c r="A244" s="8"/>
+      <c r="B244" s="8"/>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A245" s="5"/>
-      <c r="B245" s="5"/>
+      <c r="A245" s="8"/>
+      <c r="B245" s="8"/>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A246" s="5"/>
-      <c r="B246" s="5"/>
+      <c r="A246" s="8"/>
+      <c r="B246" s="8"/>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A247" s="5"/>
-      <c r="B247" s="5"/>
+      <c r="A247" s="8"/>
+      <c r="B247" s="8"/>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A248" s="5"/>
-      <c r="B248" s="5"/>
+      <c r="A248" s="8"/>
+      <c r="B248" s="8"/>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A249" s="5"/>
-      <c r="B249" s="5"/>
+      <c r="A249" s="8"/>
+      <c r="B249" s="8"/>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A250" s="5"/>
-      <c r="B250" s="5"/>
+      <c r="A250" s="8"/>
+      <c r="B250" s="8"/>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A251" s="5"/>
-      <c r="B251" s="5"/>
+      <c r="A251" s="8"/>
+      <c r="B251" s="8"/>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A252" s="5"/>
-      <c r="B252" s="5"/>
+      <c r="A252" s="8"/>
+      <c r="B252" s="8"/>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A253" s="5"/>
-      <c r="B253" s="5"/>
+      <c r="A253" s="8"/>
+      <c r="B253" s="8"/>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A254" s="5"/>
-      <c r="B254" s="5"/>
+      <c r="A254" s="8"/>
+      <c r="B254" s="8"/>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A255" s="5"/>
-      <c r="B255" s="5"/>
+      <c r="A255" s="8"/>
+      <c r="B255" s="8"/>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A256" s="5"/>
-      <c r="B256" s="5"/>
+      <c r="A256" s="8"/>
+      <c r="B256" s="8"/>
     </row>
     <row r="257" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A257" s="5"/>
-      <c r="B257" s="5"/>
+      <c r="A257" s="8"/>
+      <c r="B257" s="8"/>
     </row>
     <row r="258" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A258" s="5"/>
-      <c r="B258" s="5"/>
+      <c r="A258" s="8"/>
+      <c r="B258" s="8"/>
     </row>
     <row r="259" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A259" s="5"/>
-      <c r="B259" s="5"/>
+      <c r="A259" s="8"/>
+      <c r="B259" s="8"/>
     </row>
     <row r="260" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A260" s="5"/>
-      <c r="B260" s="5"/>
+      <c r="A260" s="8"/>
+      <c r="B260" s="8"/>
     </row>
     <row r="261" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A261" s="5"/>
-      <c r="B261" s="5"/>
+      <c r="A261" s="8"/>
+      <c r="B261" s="8"/>
     </row>
     <row r="262" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A262" s="5"/>
-      <c r="B262" s="5"/>
+      <c r="A262" s="8"/>
+      <c r="B262" s="8"/>
     </row>
     <row r="263" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A263" s="5"/>
-      <c r="B263" s="5"/>
+      <c r="A263" s="8"/>
+      <c r="B263" s="8"/>
     </row>
     <row r="264" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A264" s="5"/>
-      <c r="B264" s="5"/>
+      <c r="A264" s="8"/>
+      <c r="B264" s="8"/>
     </row>
     <row r="265" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A265" s="5"/>
-      <c r="B265" s="5"/>
+      <c r="A265" s="8"/>
+      <c r="B265" s="8"/>
     </row>
     <row r="266" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A266" s="5"/>
-      <c r="B266" s="5"/>
+      <c r="A266" s="8"/>
+      <c r="B266" s="8"/>
     </row>
     <row r="267" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A267" s="5"/>
-      <c r="B267" s="5"/>
+      <c r="A267" s="8"/>
+      <c r="B267" s="8"/>
     </row>
     <row r="268" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A268" s="5"/>
-      <c r="B268" s="5"/>
+      <c r="A268" s="8"/>
+      <c r="B268" s="8"/>
     </row>
     <row r="269" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A269" s="5"/>
-      <c r="B269" s="5"/>
+      <c r="A269" s="8"/>
+      <c r="B269" s="8"/>
     </row>
     <row r="270" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A270" s="5"/>
-      <c r="B270" s="5"/>
+      <c r="A270" s="8"/>
+      <c r="B270" s="8"/>
       <c r="V270" s="1"/>
       <c r="W270" s="1"/>
       <c r="X270" s="1"/>
@@ -4159,8 +4216,8 @@
       <c r="AD270" s="1"/>
     </row>
     <row r="271" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="5"/>
-      <c r="B271" s="5"/>
+      <c r="A271" s="8"/>
+      <c r="B271" s="8"/>
       <c r="V271" s="1"/>
       <c r="W271" s="1"/>
       <c r="X271" s="1"/>
@@ -4172,128 +4229,128 @@
       <c r="AD271" s="1"/>
     </row>
     <row r="272" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A272" s="5"/>
-      <c r="B272" s="5"/>
+      <c r="A272" s="8"/>
+      <c r="B272" s="8"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="5"/>
-      <c r="B273" s="5"/>
+      <c r="A273" s="8"/>
+      <c r="B273" s="8"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="5"/>
-      <c r="B274" s="5"/>
+      <c r="A274" s="8"/>
+      <c r="B274" s="8"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="5"/>
-      <c r="B275" s="5"/>
+      <c r="A275" s="8"/>
+      <c r="B275" s="8"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="5"/>
-      <c r="B276" s="5"/>
+      <c r="A276" s="8"/>
+      <c r="B276" s="8"/>
     </row>
     <row r="277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="5"/>
-      <c r="B277" s="5"/>
+      <c r="A277" s="8"/>
+      <c r="B277" s="8"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="5"/>
-      <c r="B278" s="5"/>
+      <c r="A278" s="8"/>
+      <c r="B278" s="8"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="5"/>
-      <c r="B279" s="5"/>
+      <c r="A279" s="8"/>
+      <c r="B279" s="8"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="5"/>
-      <c r="B280" s="5"/>
+      <c r="A280" s="8"/>
+      <c r="B280" s="8"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="5"/>
-      <c r="B281" s="5"/>
+      <c r="A281" s="8"/>
+      <c r="B281" s="8"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="5"/>
-      <c r="B282" s="5"/>
+      <c r="A282" s="8"/>
+      <c r="B282" s="8"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="5"/>
-      <c r="B283" s="5"/>
+      <c r="A283" s="8"/>
+      <c r="B283" s="8"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="5"/>
-      <c r="B284" s="5"/>
+      <c r="A284" s="8"/>
+      <c r="B284" s="8"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="5"/>
-      <c r="B285" s="5"/>
+      <c r="A285" s="8"/>
+      <c r="B285" s="8"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="5"/>
-      <c r="B286" s="5"/>
+      <c r="A286" s="8"/>
+      <c r="B286" s="8"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="5"/>
-      <c r="B287" s="5"/>
+      <c r="A287" s="8"/>
+      <c r="B287" s="8"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="5"/>
-      <c r="B288" s="5"/>
+      <c r="A288" s="8"/>
+      <c r="B288" s="8"/>
     </row>
     <row r="289" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A289" s="5"/>
-      <c r="B289" s="5"/>
+      <c r="A289" s="8"/>
+      <c r="B289" s="8"/>
     </row>
     <row r="290" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A290" s="5"/>
-      <c r="B290" s="5"/>
+      <c r="A290" s="8"/>
+      <c r="B290" s="8"/>
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A291" s="5"/>
-      <c r="B291" s="5"/>
+      <c r="A291" s="8"/>
+      <c r="B291" s="8"/>
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A292" s="5"/>
-      <c r="B292" s="5"/>
+      <c r="A292" s="8"/>
+      <c r="B292" s="8"/>
     </row>
     <row r="293" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A293" s="5"/>
-      <c r="B293" s="5"/>
+      <c r="A293" s="8"/>
+      <c r="B293" s="8"/>
     </row>
     <row r="294" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A294" s="5"/>
-      <c r="B294" s="5"/>
+      <c r="A294" s="8"/>
+      <c r="B294" s="8"/>
     </row>
     <row r="295" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A295" s="5"/>
-      <c r="B295" s="5"/>
+      <c r="A295" s="8"/>
+      <c r="B295" s="8"/>
     </row>
     <row r="296" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A296" s="5"/>
-      <c r="B296" s="5"/>
+      <c r="A296" s="8"/>
+      <c r="B296" s="8"/>
     </row>
     <row r="297" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A297" s="5"/>
-      <c r="B297" s="5"/>
+      <c r="A297" s="8"/>
+      <c r="B297" s="8"/>
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A298" s="5"/>
-      <c r="B298" s="5"/>
+      <c r="A298" s="8"/>
+      <c r="B298" s="8"/>
     </row>
     <row r="299" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A299" s="5"/>
-      <c r="B299" s="5"/>
+      <c r="A299" s="8"/>
+      <c r="B299" s="8"/>
     </row>
     <row r="300" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A300" s="5"/>
-      <c r="B300" s="5"/>
+      <c r="A300" s="8"/>
+      <c r="B300" s="8"/>
     </row>
     <row r="301" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A301" s="5"/>
-      <c r="B301" s="5"/>
+      <c r="A301" s="8"/>
+      <c r="B301" s="8"/>
     </row>
     <row r="302" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A302" s="5"/>
-      <c r="B302" s="5"/>
+      <c r="A302" s="8"/>
+      <c r="B302" s="8"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -4315,112 +4372,112 @@
       <c r="U302" s="1"/>
     </row>
     <row r="303" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A303" s="5"/>
-      <c r="B303" s="5"/>
+      <c r="A303" s="8"/>
+      <c r="B303" s="8"/>
     </row>
     <row r="304" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A304" s="5"/>
-      <c r="B304" s="5"/>
+      <c r="A304" s="8"/>
+      <c r="B304" s="8"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="5"/>
-      <c r="B305" s="5"/>
+      <c r="A305" s="8"/>
+      <c r="B305" s="8"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="5"/>
-      <c r="B306" s="5"/>
+      <c r="A306" s="8"/>
+      <c r="B306" s="8"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="5"/>
-      <c r="B307" s="5"/>
+      <c r="A307" s="8"/>
+      <c r="B307" s="8"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="5"/>
-      <c r="B308" s="5"/>
+      <c r="A308" s="8"/>
+      <c r="B308" s="8"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="5"/>
-      <c r="B309" s="5"/>
+      <c r="A309" s="8"/>
+      <c r="B309" s="8"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="5"/>
-      <c r="B310" s="5"/>
+      <c r="A310" s="8"/>
+      <c r="B310" s="8"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="5"/>
-      <c r="B311" s="5"/>
+      <c r="A311" s="8"/>
+      <c r="B311" s="8"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="5"/>
-      <c r="B312" s="5"/>
+      <c r="A312" s="8"/>
+      <c r="B312" s="8"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="5"/>
-      <c r="B313" s="5"/>
+      <c r="A313" s="8"/>
+      <c r="B313" s="8"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="5"/>
-      <c r="B314" s="5"/>
+      <c r="A314" s="8"/>
+      <c r="B314" s="8"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="5"/>
-      <c r="B315" s="5"/>
+      <c r="A315" s="8"/>
+      <c r="B315" s="8"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="5"/>
-      <c r="B316" s="5"/>
+      <c r="A316" s="8"/>
+      <c r="B316" s="8"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="5"/>
-      <c r="B317" s="5"/>
+      <c r="A317" s="8"/>
+      <c r="B317" s="8"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="5"/>
-      <c r="B318" s="5"/>
+      <c r="A318" s="8"/>
+      <c r="B318" s="8"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="5"/>
-      <c r="B319" s="5"/>
+      <c r="A319" s="8"/>
+      <c r="B319" s="8"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="5"/>
-      <c r="B320" s="5"/>
+      <c r="A320" s="8"/>
+      <c r="B320" s="8"/>
     </row>
     <row r="321" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A321" s="5"/>
-      <c r="B321" s="5"/>
+      <c r="A321" s="8"/>
+      <c r="B321" s="8"/>
     </row>
     <row r="322" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A322" s="5"/>
-      <c r="B322" s="5"/>
+      <c r="A322" s="8"/>
+      <c r="B322" s="8"/>
     </row>
     <row r="323" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A323" s="5"/>
-      <c r="B323" s="5"/>
+      <c r="A323" s="8"/>
+      <c r="B323" s="8"/>
     </row>
     <row r="324" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A324" s="5"/>
-      <c r="B324" s="5"/>
+      <c r="A324" s="8"/>
+      <c r="B324" s="8"/>
     </row>
     <row r="325" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A325" s="5"/>
-      <c r="B325" s="5"/>
+      <c r="A325" s="8"/>
+      <c r="B325" s="8"/>
     </row>
     <row r="326" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A326" s="5"/>
-      <c r="B326" s="5"/>
+      <c r="A326" s="8"/>
+      <c r="B326" s="8"/>
     </row>
     <row r="327" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A327" s="5"/>
-      <c r="B327" s="5"/>
+      <c r="A327" s="8"/>
+      <c r="B327" s="8"/>
     </row>
     <row r="328" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A328" s="5"/>
-      <c r="B328" s="5"/>
+      <c r="A328" s="8"/>
+      <c r="B328" s="8"/>
     </row>
     <row r="329" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A329" s="5"/>
-      <c r="B329" s="5"/>
+      <c r="A329" s="8"/>
+      <c r="B329" s="8"/>
       <c r="V329" s="1"/>
       <c r="W329" s="1"/>
       <c r="X329" s="1"/>
@@ -4432,8 +4489,8 @@
       <c r="AD329" s="1"/>
     </row>
     <row r="330" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="5"/>
-      <c r="B330" s="5"/>
+      <c r="A330" s="8"/>
+      <c r="B330" s="8"/>
       <c r="V330" s="1"/>
       <c r="W330" s="1"/>
       <c r="X330" s="1"/>
@@ -4445,76 +4502,76 @@
       <c r="AD330" s="1"/>
     </row>
     <row r="331" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A331" s="5"/>
-      <c r="B331" s="5"/>
+      <c r="A331" s="8"/>
+      <c r="B331" s="8"/>
     </row>
     <row r="332" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A332" s="5"/>
-      <c r="B332" s="5"/>
+      <c r="A332" s="8"/>
+      <c r="B332" s="8"/>
     </row>
     <row r="333" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A333" s="5"/>
-      <c r="B333" s="5"/>
+      <c r="A333" s="8"/>
+      <c r="B333" s="8"/>
     </row>
     <row r="334" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A334" s="5"/>
-      <c r="B334" s="5"/>
+      <c r="A334" s="8"/>
+      <c r="B334" s="8"/>
     </row>
     <row r="335" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A335" s="5"/>
-      <c r="B335" s="5"/>
+      <c r="A335" s="8"/>
+      <c r="B335" s="8"/>
     </row>
     <row r="336" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A336" s="5"/>
-      <c r="B336" s="5"/>
+      <c r="A336" s="8"/>
+      <c r="B336" s="8"/>
     </row>
     <row r="337" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A337" s="5"/>
-      <c r="B337" s="5"/>
+      <c r="A337" s="8"/>
+      <c r="B337" s="8"/>
     </row>
     <row r="338" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A338" s="5"/>
-      <c r="B338" s="5"/>
+      <c r="A338" s="8"/>
+      <c r="B338" s="8"/>
     </row>
     <row r="339" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A339" s="5"/>
-      <c r="B339" s="5"/>
+      <c r="A339" s="8"/>
+      <c r="B339" s="8"/>
     </row>
     <row r="340" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A340" s="5"/>
-      <c r="B340" s="5"/>
+      <c r="A340" s="8"/>
+      <c r="B340" s="8"/>
     </row>
     <row r="341" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A341" s="5"/>
-      <c r="B341" s="5"/>
+      <c r="A341" s="8"/>
+      <c r="B341" s="8"/>
     </row>
     <row r="342" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A342" s="5"/>
-      <c r="B342" s="5"/>
+      <c r="A342" s="8"/>
+      <c r="B342" s="8"/>
     </row>
     <row r="343" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A343" s="5"/>
-      <c r="B343" s="5"/>
+      <c r="A343" s="8"/>
+      <c r="B343" s="8"/>
     </row>
     <row r="344" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A344" s="5"/>
-      <c r="B344" s="5"/>
+      <c r="A344" s="8"/>
+      <c r="B344" s="8"/>
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A345" s="5"/>
-      <c r="B345" s="5"/>
+      <c r="A345" s="8"/>
+      <c r="B345" s="8"/>
     </row>
     <row r="346" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A346" s="5"/>
-      <c r="B346" s="5"/>
+      <c r="A346" s="8"/>
+      <c r="B346" s="8"/>
     </row>
     <row r="347" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A347" s="5"/>
-      <c r="B347" s="5"/>
+      <c r="A347" s="8"/>
+      <c r="B347" s="8"/>
     </row>
     <row r="348" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A348" s="5"/>
-      <c r="B348" s="5"/>
+      <c r="A348" s="8"/>
+      <c r="B348" s="8"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -4536,8 +4593,8 @@
       <c r="U348" s="1"/>
     </row>
     <row r="349" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A349" s="5"/>
-      <c r="B349" s="5"/>
+      <c r="A349" s="8"/>
+      <c r="B349" s="8"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -4559,116 +4616,116 @@
       <c r="U349" s="1"/>
     </row>
     <row r="350" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A350" s="5"/>
-      <c r="B350" s="5"/>
+      <c r="A350" s="8"/>
+      <c r="B350" s="8"/>
     </row>
     <row r="351" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A351" s="5"/>
-      <c r="B351" s="5"/>
+      <c r="A351" s="8"/>
+      <c r="B351" s="8"/>
     </row>
     <row r="352" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A352" s="5"/>
-      <c r="B352" s="5"/>
+      <c r="A352" s="8"/>
+      <c r="B352" s="8"/>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="5"/>
-      <c r="B353" s="5"/>
+      <c r="A353" s="8"/>
+      <c r="B353" s="8"/>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="5"/>
-      <c r="B354" s="5"/>
+      <c r="A354" s="8"/>
+      <c r="B354" s="8"/>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="5"/>
-      <c r="B355" s="5"/>
+      <c r="A355" s="8"/>
+      <c r="B355" s="8"/>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="5"/>
-      <c r="B356" s="5"/>
+      <c r="A356" s="8"/>
+      <c r="B356" s="8"/>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="5"/>
-      <c r="B357" s="5"/>
+      <c r="A357" s="8"/>
+      <c r="B357" s="8"/>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="5"/>
-      <c r="B358" s="5"/>
+      <c r="A358" s="8"/>
+      <c r="B358" s="8"/>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="5"/>
-      <c r="B359" s="5"/>
+      <c r="A359" s="8"/>
+      <c r="B359" s="8"/>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="5"/>
-      <c r="B360" s="5"/>
+      <c r="A360" s="8"/>
+      <c r="B360" s="8"/>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="5"/>
-      <c r="B361" s="5"/>
+      <c r="A361" s="8"/>
+      <c r="B361" s="8"/>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="5"/>
-      <c r="B362" s="5"/>
+      <c r="A362" s="8"/>
+      <c r="B362" s="8"/>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="5"/>
-      <c r="B363" s="5"/>
+      <c r="A363" s="8"/>
+      <c r="B363" s="8"/>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="5"/>
-      <c r="B364" s="5"/>
+      <c r="A364" s="8"/>
+      <c r="B364" s="8"/>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="5"/>
-      <c r="B365" s="5"/>
+      <c r="A365" s="8"/>
+      <c r="B365" s="8"/>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="5"/>
-      <c r="B366" s="5"/>
+      <c r="A366" s="8"/>
+      <c r="B366" s="8"/>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="5"/>
-      <c r="B367" s="5"/>
+      <c r="A367" s="8"/>
+      <c r="B367" s="8"/>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="5"/>
-      <c r="B368" s="5"/>
+      <c r="A368" s="8"/>
+      <c r="B368" s="8"/>
     </row>
     <row r="369" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A369" s="5"/>
-      <c r="B369" s="5"/>
+      <c r="A369" s="8"/>
+      <c r="B369" s="8"/>
     </row>
     <row r="370" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A370" s="5"/>
-      <c r="B370" s="5"/>
+      <c r="A370" s="8"/>
+      <c r="B370" s="8"/>
     </row>
     <row r="371" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A371" s="5"/>
-      <c r="B371" s="5"/>
+      <c r="A371" s="8"/>
+      <c r="B371" s="8"/>
     </row>
     <row r="372" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A372" s="5"/>
-      <c r="B372" s="5"/>
+      <c r="A372" s="8"/>
+      <c r="B372" s="8"/>
     </row>
     <row r="373" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A373" s="5"/>
-      <c r="B373" s="5"/>
+      <c r="A373" s="8"/>
+      <c r="B373" s="8"/>
     </row>
     <row r="374" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A374" s="5"/>
-      <c r="B374" s="5"/>
+      <c r="A374" s="8"/>
+      <c r="B374" s="8"/>
     </row>
     <row r="375" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A375" s="5"/>
-      <c r="B375" s="5"/>
+      <c r="A375" s="8"/>
+      <c r="B375" s="8"/>
     </row>
     <row r="376" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A376" s="5"/>
-      <c r="B376" s="5"/>
+      <c r="A376" s="8"/>
+      <c r="B376" s="8"/>
     </row>
     <row r="377" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A377" s="5"/>
-      <c r="B377" s="5"/>
+      <c r="A377" s="8"/>
+      <c r="B377" s="8"/>
       <c r="V377" s="1"/>
       <c r="W377" s="1"/>
       <c r="X377" s="1"/>
@@ -4682,8 +4739,8 @@
       <c r="AH377" s="1"/>
     </row>
     <row r="378" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="5"/>
-      <c r="B378" s="5"/>
+      <c r="A378" s="8"/>
+      <c r="B378" s="8"/>
       <c r="V378" s="1"/>
       <c r="W378" s="1"/>
       <c r="X378" s="1"/>
@@ -4697,104 +4754,104 @@
       <c r="AH378" s="1"/>
     </row>
     <row r="379" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A379" s="5"/>
-      <c r="B379" s="5"/>
+      <c r="A379" s="8"/>
+      <c r="B379" s="8"/>
     </row>
     <row r="380" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A380" s="5"/>
-      <c r="B380" s="5"/>
+      <c r="A380" s="8"/>
+      <c r="B380" s="8"/>
     </row>
     <row r="381" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A381" s="5"/>
-      <c r="B381" s="5"/>
+      <c r="A381" s="8"/>
+      <c r="B381" s="8"/>
     </row>
     <row r="382" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A382" s="5"/>
-      <c r="B382" s="5"/>
+      <c r="A382" s="8"/>
+      <c r="B382" s="8"/>
     </row>
     <row r="383" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A383" s="5"/>
-      <c r="B383" s="5"/>
+      <c r="A383" s="8"/>
+      <c r="B383" s="8"/>
     </row>
     <row r="384" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A384" s="5"/>
-      <c r="B384" s="5"/>
+      <c r="A384" s="8"/>
+      <c r="B384" s="8"/>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="5"/>
-      <c r="B385" s="5"/>
+      <c r="A385" s="8"/>
+      <c r="B385" s="8"/>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="5"/>
-      <c r="B386" s="5"/>
+      <c r="A386" s="8"/>
+      <c r="B386" s="8"/>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="5"/>
-      <c r="B387" s="5"/>
+      <c r="A387" s="8"/>
+      <c r="B387" s="8"/>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="5"/>
-      <c r="B388" s="5"/>
+      <c r="A388" s="8"/>
+      <c r="B388" s="8"/>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="5"/>
-      <c r="B389" s="5"/>
+      <c r="A389" s="8"/>
+      <c r="B389" s="8"/>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="5"/>
-      <c r="B390" s="5"/>
+      <c r="A390" s="8"/>
+      <c r="B390" s="8"/>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="5"/>
-      <c r="B391" s="5"/>
+      <c r="A391" s="8"/>
+      <c r="B391" s="8"/>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="5"/>
-      <c r="B392" s="5"/>
+      <c r="A392" s="8"/>
+      <c r="B392" s="8"/>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="5"/>
-      <c r="B393" s="5"/>
+      <c r="A393" s="8"/>
+      <c r="B393" s="8"/>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="5"/>
-      <c r="B394" s="5"/>
+      <c r="A394" s="8"/>
+      <c r="B394" s="8"/>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="5"/>
-      <c r="B395" s="5"/>
+      <c r="A395" s="8"/>
+      <c r="B395" s="8"/>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="5"/>
-      <c r="B396" s="5"/>
+      <c r="A396" s="8"/>
+      <c r="B396" s="8"/>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="5"/>
-      <c r="B397" s="5"/>
+      <c r="A397" s="8"/>
+      <c r="B397" s="8"/>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="5"/>
-      <c r="B398" s="5"/>
+      <c r="A398" s="8"/>
+      <c r="B398" s="8"/>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="5"/>
-      <c r="B399" s="5"/>
+      <c r="A399" s="8"/>
+      <c r="B399" s="8"/>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="5"/>
-      <c r="B400" s="5"/>
+      <c r="A400" s="8"/>
+      <c r="B400" s="8"/>
     </row>
     <row r="401" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A401" s="5"/>
-      <c r="B401" s="5"/>
+      <c r="A401" s="8"/>
+      <c r="B401" s="8"/>
     </row>
     <row r="402" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A402" s="5"/>
-      <c r="B402" s="5"/>
+      <c r="A402" s="8"/>
+      <c r="B402" s="8"/>
     </row>
     <row r="403" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A403" s="5"/>
-      <c r="B403" s="5"/>
+      <c r="A403" s="8"/>
+      <c r="B403" s="8"/>
       <c r="V403" s="1"/>
       <c r="W403" s="1"/>
       <c r="X403" s="1"/>
@@ -4808,8 +4865,8 @@
       <c r="AH403" s="1"/>
     </row>
     <row r="404" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="5"/>
-      <c r="B404" s="5"/>
+      <c r="A404" s="8"/>
+      <c r="B404" s="8"/>
       <c r="V404" s="1"/>
       <c r="W404" s="1"/>
       <c r="X404" s="1"/>
@@ -4823,8 +4880,8 @@
       <c r="AH404" s="1"/>
     </row>
     <row r="405" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A405" s="5"/>
-      <c r="B405" s="5"/>
+      <c r="A405" s="8"/>
+      <c r="B405" s="8"/>
       <c r="V405" s="1"/>
       <c r="W405" s="1"/>
       <c r="X405" s="1"/>
@@ -4838,40 +4895,40 @@
       <c r="AH405" s="1"/>
     </row>
     <row r="406" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A406" s="5"/>
-      <c r="B406" s="5"/>
+      <c r="A406" s="8"/>
+      <c r="B406" s="8"/>
     </row>
     <row r="407" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A407" s="5"/>
-      <c r="B407" s="5"/>
+      <c r="A407" s="8"/>
+      <c r="B407" s="8"/>
     </row>
     <row r="408" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A408" s="5"/>
-      <c r="B408" s="5"/>
+      <c r="A408" s="8"/>
+      <c r="B408" s="8"/>
     </row>
     <row r="409" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A409" s="5"/>
-      <c r="B409" s="5"/>
+      <c r="A409" s="8"/>
+      <c r="B409" s="8"/>
     </row>
     <row r="410" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A410" s="5"/>
-      <c r="B410" s="5"/>
+      <c r="A410" s="8"/>
+      <c r="B410" s="8"/>
     </row>
     <row r="411" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A411" s="5"/>
-      <c r="B411" s="5"/>
+      <c r="A411" s="8"/>
+      <c r="B411" s="8"/>
     </row>
     <row r="412" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A412" s="5"/>
-      <c r="B412" s="5"/>
+      <c r="A412" s="8"/>
+      <c r="B412" s="8"/>
     </row>
     <row r="413" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A413" s="5"/>
-      <c r="B413" s="5"/>
+      <c r="A413" s="8"/>
+      <c r="B413" s="8"/>
     </row>
     <row r="414" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A414" s="5"/>
-      <c r="B414" s="5"/>
+      <c r="A414" s="8"/>
+      <c r="B414" s="8"/>
       <c r="V414" s="1"/>
       <c r="W414" s="1"/>
       <c r="X414" s="1"/>
@@ -4885,8 +4942,8 @@
       <c r="AH414" s="1"/>
     </row>
     <row r="415" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="5"/>
-      <c r="B415" s="5"/>
+      <c r="A415" s="8"/>
+      <c r="B415" s="8"/>
       <c r="V415" s="1"/>
       <c r="W415" s="1"/>
       <c r="X415" s="1"/>
@@ -4900,40 +4957,40 @@
       <c r="AH415" s="1"/>
     </row>
     <row r="416" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A416" s="5"/>
-      <c r="B416" s="5"/>
+      <c r="A416" s="8"/>
+      <c r="B416" s="8"/>
     </row>
     <row r="417" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A417" s="5"/>
-      <c r="B417" s="5"/>
+      <c r="A417" s="8"/>
+      <c r="B417" s="8"/>
     </row>
     <row r="418" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A418" s="5"/>
-      <c r="B418" s="5"/>
+      <c r="A418" s="8"/>
+      <c r="B418" s="8"/>
     </row>
     <row r="419" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A419" s="5"/>
-      <c r="B419" s="5"/>
+      <c r="A419" s="8"/>
+      <c r="B419" s="8"/>
     </row>
     <row r="420" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A420" s="5"/>
-      <c r="B420" s="5"/>
+      <c r="A420" s="8"/>
+      <c r="B420" s="8"/>
     </row>
     <row r="421" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A421" s="5"/>
-      <c r="B421" s="5"/>
+      <c r="A421" s="8"/>
+      <c r="B421" s="8"/>
     </row>
     <row r="422" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A422" s="5"/>
-      <c r="B422" s="5"/>
+      <c r="A422" s="8"/>
+      <c r="B422" s="8"/>
     </row>
     <row r="423" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A423" s="5"/>
-      <c r="B423" s="5"/>
+      <c r="A423" s="8"/>
+      <c r="B423" s="8"/>
     </row>
     <row r="424" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A424" s="5"/>
-      <c r="B424" s="5"/>
+      <c r="A424" s="8"/>
+      <c r="B424" s="8"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -4955,68 +5012,68 @@
       <c r="U424" s="1"/>
     </row>
     <row r="425" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A425" s="5"/>
-      <c r="B425" s="5"/>
+      <c r="A425" s="8"/>
+      <c r="B425" s="8"/>
     </row>
     <row r="426" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A426" s="5"/>
-      <c r="B426" s="5"/>
+      <c r="A426" s="8"/>
+      <c r="B426" s="8"/>
     </row>
     <row r="427" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A427" s="5"/>
-      <c r="B427" s="5"/>
+      <c r="A427" s="8"/>
+      <c r="B427" s="8"/>
     </row>
     <row r="428" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A428" s="5"/>
-      <c r="B428" s="5"/>
+      <c r="A428" s="8"/>
+      <c r="B428" s="8"/>
     </row>
     <row r="429" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A429" s="5"/>
-      <c r="B429" s="5"/>
+      <c r="A429" s="8"/>
+      <c r="B429" s="8"/>
     </row>
     <row r="430" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A430" s="5"/>
-      <c r="B430" s="5"/>
+      <c r="A430" s="8"/>
+      <c r="B430" s="8"/>
     </row>
     <row r="431" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A431" s="6"/>
-      <c r="B431" s="6"/>
+      <c r="A431" s="10"/>
+      <c r="B431" s="10"/>
     </row>
     <row r="432" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A432" s="6"/>
-      <c r="B432" s="6"/>
+      <c r="A432" s="10"/>
+      <c r="B432" s="10"/>
     </row>
     <row r="433" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A433" s="6"/>
-      <c r="B433" s="6"/>
+      <c r="A433" s="10"/>
+      <c r="B433" s="10"/>
     </row>
     <row r="434" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A434" s="6"/>
-      <c r="B434" s="6"/>
+      <c r="A434" s="10"/>
+      <c r="B434" s="10"/>
     </row>
     <row r="435" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A435" s="6"/>
-      <c r="B435" s="6"/>
+      <c r="A435" s="10"/>
+      <c r="B435" s="10"/>
     </row>
     <row r="436" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A436" s="6"/>
-      <c r="B436" s="6"/>
+      <c r="A436" s="10"/>
+      <c r="B436" s="10"/>
     </row>
     <row r="437" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A437" s="6"/>
-      <c r="B437" s="6"/>
+      <c r="A437" s="10"/>
+      <c r="B437" s="10"/>
     </row>
     <row r="438" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A438" s="6"/>
-      <c r="B438" s="6"/>
+      <c r="A438" s="10"/>
+      <c r="B438" s="10"/>
     </row>
     <row r="439" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A439" s="6"/>
-      <c r="B439" s="6"/>
+      <c r="A439" s="10"/>
+      <c r="B439" s="10"/>
     </row>
     <row r="440" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A440" s="6"/>
-      <c r="B440" s="6"/>
+      <c r="A440" s="10"/>
+      <c r="B440" s="10"/>
       <c r="V440" s="1"/>
       <c r="W440" s="1"/>
       <c r="X440" s="1"/>
@@ -5030,8 +5087,8 @@
       <c r="AH440" s="1"/>
     </row>
     <row r="441" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="6"/>
-      <c r="B441" s="6"/>
+      <c r="A441" s="10"/>
+      <c r="B441" s="10"/>
       <c r="V441" s="1"/>
       <c r="W441" s="1"/>
       <c r="X441" s="1"/>
@@ -5045,60 +5102,60 @@
       <c r="AH441" s="1"/>
     </row>
     <row r="442" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A442" s="6"/>
-      <c r="B442" s="6"/>
+      <c r="A442" s="10"/>
+      <c r="B442" s="10"/>
     </row>
     <row r="443" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A443" s="6"/>
-      <c r="B443" s="6"/>
+      <c r="A443" s="10"/>
+      <c r="B443" s="10"/>
     </row>
     <row r="444" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A444" s="6"/>
-      <c r="B444" s="6"/>
+      <c r="A444" s="10"/>
+      <c r="B444" s="10"/>
     </row>
     <row r="445" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A445" s="6"/>
-      <c r="B445" s="6"/>
+      <c r="A445" s="10"/>
+      <c r="B445" s="10"/>
     </row>
     <row r="446" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A446" s="6"/>
-      <c r="B446" s="6"/>
+      <c r="A446" s="10"/>
+      <c r="B446" s="10"/>
     </row>
     <row r="447" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A447" s="6"/>
-      <c r="B447" s="6"/>
+      <c r="A447" s="10"/>
+      <c r="B447" s="10"/>
     </row>
     <row r="448" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A448" s="6"/>
-      <c r="B448" s="6"/>
+      <c r="A448" s="10"/>
+      <c r="B448" s="10"/>
     </row>
     <row r="449" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A449" s="6"/>
-      <c r="B449" s="6"/>
+      <c r="A449" s="10"/>
+      <c r="B449" s="10"/>
     </row>
     <row r="450" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A450" s="6"/>
-      <c r="B450" s="6"/>
+      <c r="A450" s="10"/>
+      <c r="B450" s="10"/>
     </row>
     <row r="451" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A451" s="6"/>
-      <c r="B451" s="6"/>
+      <c r="A451" s="10"/>
+      <c r="B451" s="10"/>
     </row>
     <row r="452" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A452" s="6"/>
-      <c r="B452" s="6"/>
+      <c r="A452" s="10"/>
+      <c r="B452" s="10"/>
     </row>
     <row r="453" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A453" s="6"/>
-      <c r="B453" s="6"/>
+      <c r="A453" s="10"/>
+      <c r="B453" s="10"/>
     </row>
     <row r="454" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A454" s="6"/>
-      <c r="B454" s="6"/>
+      <c r="A454" s="10"/>
+      <c r="B454" s="10"/>
     </row>
     <row r="455" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A455" s="6"/>
-      <c r="B455" s="6"/>
+      <c r="A455" s="10"/>
+      <c r="B455" s="10"/>
     </row>
     <row r="463" spans="1:34" x14ac:dyDescent="0.25">
       <c r="V463" s="1"/>
@@ -5536,11 +5593,11 @@
     <row r="1116" spans="22:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B34"/>
-    <mergeCell ref="A35:B50"/>
-    <mergeCell ref="A51:B53"/>
-    <mergeCell ref="A54:B56"/>
+    <mergeCell ref="A243:B301"/>
+    <mergeCell ref="A302:B348"/>
+    <mergeCell ref="A349:B424"/>
+    <mergeCell ref="A425:B430"/>
+    <mergeCell ref="A431:B455"/>
     <mergeCell ref="A57:B63"/>
     <mergeCell ref="A231:B242"/>
     <mergeCell ref="A64:B70"/>
@@ -5554,11 +5611,11 @@
     <mergeCell ref="A221:B223"/>
     <mergeCell ref="A224:B226"/>
     <mergeCell ref="A227:B230"/>
-    <mergeCell ref="A243:B301"/>
-    <mergeCell ref="A302:B348"/>
-    <mergeCell ref="A349:B424"/>
-    <mergeCell ref="A425:B430"/>
-    <mergeCell ref="A431:B455"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B34"/>
+    <mergeCell ref="A35:B50"/>
+    <mergeCell ref="A51:B53"/>
+    <mergeCell ref="A54:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
